--- a/Consolidated_Reports/Shared_Services_Consolidated.xlsx
+++ b/Consolidated_Reports/Shared_Services_Consolidated.xlsx
@@ -1092,19 +1092,19 @@
     <t>68.67%</t>
   </si>
   <si>
-    <t>11:24:2025</t>
-  </si>
-  <si>
-    <t>11:21:2025</t>
-  </si>
-  <si>
-    <t>11:20:2025</t>
-  </si>
-  <si>
-    <t>11:19:2025</t>
-  </si>
-  <si>
-    <t>11:18:2025</t>
+    <t>11-24-2025</t>
+  </si>
+  <si>
+    <t>11-21-2025</t>
+  </si>
+  <si>
+    <t>11-20-2025</t>
+  </si>
+  <si>
+    <t>11-19-2025</t>
+  </si>
+  <si>
+    <t>11-18-2025</t>
   </si>
   <si>
     <t>Shared_services</t>
